--- a/01_Documentation/02_resources/excel/analysis-requirements-product.xlsx
+++ b/01_Documentation/02_resources/excel/analysis-requirements-product.xlsx
@@ -138,7 +138,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,13 +160,27 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.749961851863155"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -260,9 +274,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -277,6 +288,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -559,7 +573,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -569,171 +585,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">

--- a/01_Documentation/02_resources/excel/analysis-requirements-product.xlsx
+++ b/01_Documentation/02_resources/excel/analysis-requirements-product.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -47,16 +47,7 @@
     <t>If the database cannot be opened the app must exit gracefully</t>
   </si>
   <si>
-    <t>The location of the database file must be configurable</t>
-  </si>
-  <si>
-    <t>The name of the database file must be configurable</t>
-  </si>
-  <si>
     <t>If the database file is not found the app must exit gracefully</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The maximum word lenght should not exceed 32 letters </t>
   </si>
   <si>
     <t>The same word should not appear in the list</t>
@@ -93,14 +84,6 @@
 - However the same word should not be selected</t>
   </si>
   <si>
-    <t>The directory of the database should be configurable from an environment variable
-- If the variable is not set, a default should be used</t>
-  </si>
-  <si>
-    <t>The name of the database file should be configurable from an environment variable
-- If the variable is not set, a default should be used</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -132,6 +115,45 @@
   </si>
   <si>
     <t>APP-RQ010</t>
+  </si>
+  <si>
+    <t>word-picker.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The maximum word length should not exceed 32 letters </t>
+  </si>
+  <si>
+    <t>create-word-database.c</t>
+  </si>
+  <si>
+    <t>Implemented by</t>
+  </si>
+  <si>
+    <t>column width = 32</t>
+  </si>
+  <si>
+    <t>unique constraint on column</t>
+  </si>
+  <si>
+    <t>TC001</t>
+  </si>
+  <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>The location &amp; name of the database file must be configurable from an environment variable</t>
+  </si>
+  <si>
+    <t>If the environment variable is set then the user will not be prompted for a database name</t>
+  </si>
+  <si>
+    <t>The name &amp; directory of the database should be configurable from an environment variable</t>
+  </si>
+  <si>
+    <t>TC003</t>
+  </si>
+  <si>
+    <t>Tested in Testcase</t>
   </si>
 </sst>
 </file>
@@ -264,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -290,6 +312,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -582,14 +619,16 @@
     <col min="1" max="1" width="13.6328125" customWidth="1"/>
     <col min="3" max="3" width="55.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70.7265625" customWidth="1"/>
+    <col min="5" max="5" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>1</v>
@@ -597,167 +636,235 @@
       <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>7</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/01_Documentation/02_resources/excel/analysis-requirements-product.xlsx
+++ b/01_Documentation/02_resources/excel/analysis-requirements-product.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -154,6 +154,45 @@
   </si>
   <si>
     <t>Tested in Testcase</t>
+  </si>
+  <si>
+    <t>All code must have comments</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>me</t>
+  </si>
+  <si>
+    <t>The product must have a personal touch</t>
+  </si>
+  <si>
+    <t>All functions must have a short description of (inputs/outputs/steps executed)</t>
+  </si>
+  <si>
+    <t>github &amp; readme</t>
+  </si>
+  <si>
+    <t>in code</t>
+  </si>
+  <si>
+    <t>The finished product must be available by download</t>
+  </si>
+  <si>
+    <t>Variable names can my unique</t>
+  </si>
+  <si>
+    <t>APP-RQ011</t>
+  </si>
+  <si>
+    <t>APP-RQ012</t>
+  </si>
+  <si>
+    <t>APP-RQ013</t>
   </si>
 </sst>
 </file>
@@ -205,7 +244,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -269,19 +308,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -294,9 +320,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -313,20 +337,26 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -619,252 +649,329 @@
     <col min="1" max="1" width="13.6328125" customWidth="1"/>
     <col min="3" max="3" width="55.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70.7265625" customWidth="1"/>
-    <col min="5" max="5" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="G2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="G3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="G4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="G5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="G6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="G7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="12" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="G8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="13" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="16"/>
+      <c r="F11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
